--- a/Modeling and Storage/Modeling/dimensions excel_format/payment_dimension.xlsx
+++ b/Modeling and Storage/Modeling/dimensions excel_format/payment_dimension.xlsx
@@ -491,7 +491,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>not_defined</t>
+          <t>other</t>
         </is>
       </c>
     </row>
